--- a/core/seed_auth_user_groups.xlsx
+++ b/core/seed_auth_user_groups.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D813AA18-81F9-45EA-82D7-64EBF1080BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4293038A-A7DA-4AD9-A811-A3F010A51574}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>EMPLOYEE ADMIN</t>
   </si>
@@ -31,13 +31,61 @@
     <t>GROUP NAME</t>
   </si>
   <si>
-    <t>test id 01</t>
-  </si>
-  <si>
-    <t>test-id-02</t>
-  </si>
-  <si>
     <t>PURCHASE REQUEST REQUESTOR, purchase request approver</t>
+  </si>
+  <si>
+    <t>EMP-ID-25</t>
+  </si>
+  <si>
+    <t>EMP-ID-26</t>
+  </si>
+  <si>
+    <t>EMP-ID-27</t>
+  </si>
+  <si>
+    <t>EMP-ID-20</t>
+  </si>
+  <si>
+    <t>EMP-ID-21</t>
+  </si>
+  <si>
+    <t>EMP-ID-22</t>
+  </si>
+  <si>
+    <t>EMP-ID-23</t>
+  </si>
+  <si>
+    <t>EMP-ID-24</t>
+  </si>
+  <si>
+    <t>purchase request approver</t>
+  </si>
+  <si>
+    <t>PURCHASE REQUEST REQUESTOR</t>
+  </si>
+  <si>
+    <t>EMP-ID-28</t>
+  </si>
+  <si>
+    <t>EMP-ID-29</t>
+  </si>
+  <si>
+    <t>EMP-ID-30</t>
+  </si>
+  <si>
+    <t>EMP-ID-31</t>
+  </si>
+  <si>
+    <t>EMP-ID-32</t>
+  </si>
+  <si>
+    <t>SALES REPRESENTATIVE</t>
+  </si>
+  <si>
+    <t>SALES REPRESENTATIVE, SALES ADMIN</t>
+  </si>
+  <si>
+    <t>EMP-ID-06</t>
   </si>
 </sst>
 </file>
@@ -878,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,7 +947,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -910,7 +958,103 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
